--- a/biology/Zoologie/Calospila_emylius/Calospila_emylius.xlsx
+++ b/biology/Zoologie/Calospila_emylius/Calospila_emylius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila emylius est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Calospila.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Calospila emylius a été décrit par Pieter Cramer en 1775 sous le nom de Papilio emylius[1].
-Sous-espèces
-Calospila emylius emylius présent au Surinam.
-Calospila emylius crispinella (Stichel, 1911); présent en Bolivie et au  Pérou.
-Calospila emylius emyliana (Stichel, 1911); présent au Brésil et au  Pérou.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila emylius a été décrit par Pieter Cramer en 1775 sous le nom de Papilio emylius.
+</t>
         </is>
       </c>
     </row>
@@ -542,10 +553,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Calospila emylius emylius présent au Surinam.
+Calospila emylius crispinella (Stichel, 1911); présent en Bolivie et au  Pérou.
+Calospila emylius emyliana (Stichel, 1911); présent au Brésil et au  Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calospila_emylius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_emylius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle rouge orangé avec une bordure marron si large aux antérieures qu'elle ne laisse qu'une petite partie basale.
 La femelle est marron avec une ligne submarginale de petits ocelles chapeautés de blanc et les antérieures barrées par une large bande jaune.
@@ -554,32 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Calospila_emylius</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calospila_emylius</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -601,16 +626,116 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calospila_emylius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_emylius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila emylius est présent dans le nord de l'Amérique du Sud, en Guyane, en Guyana,  au Surinam, à Trinité-et-Tobago, en Bolivie, au Brésil, et au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila emylius est présent dans le nord de l'Amérique du Sud, en Guyane, en Guyana,  au Surinam, à Trinité-et-Tobago, en Bolivie, au Brésil, et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calospila_emylius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_emylius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calospila_emylius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_emylius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
